--- a/biology/Médecine/Vésicule_(lésion)/Vésicule_(lésion).xlsx
+++ b/biology/Médecine/Vésicule_(lésion)/Vésicule_(lésion).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>V%C3%A9sicule_(l%C3%A9sion)</t>
+          <t>Vésicule_(lésion)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une vésicule (cutanée) est une lésion non inflammatoire de la peau, élévation circonscrite de l'épiderme, due à une collection de liquide clair contenu dans une cavité néo-formée, de volume variable mais petit (1  à   3 mm de diamètre).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>V%C3%A9sicule_(l%C3%A9sion)</t>
+          <t>Vésicule_(lésion)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Une vésicule cutanée est une lésion élémentaire cutanée translucide due à la formation d'une cavité de petite taille (1  à   3 mm) dans la peau. Cette lésion se traduit cliniquement par un petit soulèvement hémisphérique saillant sur le reste du tégument.
 Elle est transitoire et une sérosité (liquide clair) s'en écoule lors de sa rupture ou à l'aide d'un vaccinostyle.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>V%C3%A9sicule_(l%C3%A9sion)</t>
+          <t>Vésicule_(lésion)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Histologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les vésicules résultent :
 soit d'un œdème du corps muqueux (la spongiose) qui dissocie les kératinocytes et forme ainsi une cavité (eczéma) ; cette cavité est parfois multiloculaire ;
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>V%C3%A9sicule_(l%C3%A9sion)</t>
+          <t>Vésicule_(lésion)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>liste à compléter
 Eczéma nummulaire
@@ -596,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>V%C3%A9sicule_(l%C3%A9sion)</t>
+          <t>Vésicule_(lésion)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,7 +632,9 @@
           <t>Diagnostics différentiels</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vocabulaire médical de dermatologie distingue théoriquement la vésicule cutanée de :
 La bulle : la bulle est plus volumineuse que la vésicule ; une affection vésiculeuse peut devenir bulleuse lorsque le décollement intra épidermique s'étend par coalescence des vésicules ;
